--- a/DbLayouts/L5-管理性作業/HlAreaLnYg6Pt.xlsx
+++ b/DbLayouts/L5-管理性作業/HlAreaLnYg6Pt.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-ST1\St1Share\SKL\DB\GenTables\L5-管理性作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L5-管理性作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" iterate="1"/>
 </workbook>
 </file>
 
@@ -97,10 +97,6 @@
   <si>
     <t>TisAppAmt</t>
     <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>HlAreaLnYg6Pt</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>匯出用HlAreaLnYg6Pt</t>
@@ -291,6 +287,10 @@
   <si>
     <t>恆為1</t>
     <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>HlAreaLnYg6Pt</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -573,6 +573,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -584,9 +587,6 @@
     </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -897,7 +897,7 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -912,23 +912,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="32"/>
+      <c r="B1" s="33"/>
       <c r="C1" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>22</v>
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="31"/>
-      <c r="B2" s="32"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="33"/>
       <c r="C2" s="8" t="s">
         <v>1</v>
       </c>
@@ -940,12 +940,12 @@
       <c r="G2" s="11"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="34"/>
+      <c r="B3" s="35"/>
       <c r="C3" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>18</v>
@@ -955,10 +955,10 @@
       <c r="G3" s="11"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="33"/>
+      <c r="B4" s="34"/>
       <c r="C4" s="12"/>
       <c r="D4" s="13"/>
       <c r="E4" s="10"/>
@@ -966,10 +966,10 @@
       <c r="G4" s="11"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="34"/>
+      <c r="B5" s="35"/>
       <c r="C5" s="3"/>
       <c r="D5" s="13"/>
       <c r="E5" s="10"/>
@@ -977,10 +977,10 @@
       <c r="G5" s="11"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="32"/>
+      <c r="B6" s="33"/>
       <c r="C6" s="3"/>
       <c r="D6" s="13"/>
       <c r="E6" s="10"/>
@@ -988,10 +988,10 @@
       <c r="G6" s="11"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="33"/>
+      <c r="B7" s="34"/>
       <c r="C7" s="3"/>
       <c r="D7" s="13"/>
       <c r="E7" s="10"/>
@@ -1026,13 +1026,13 @@
         <v>1</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" s="35" t="s">
-        <v>54</v>
+        <v>40</v>
+      </c>
+      <c r="D9" s="31" t="s">
+        <v>53</v>
       </c>
       <c r="E9" s="29">
         <v>10</v>
@@ -1045,13 +1045,13 @@
         <v>2</v>
       </c>
       <c r="B10" s="28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" s="35" t="s">
-        <v>55</v>
+        <v>41</v>
+      </c>
+      <c r="D10" s="31" t="s">
+        <v>54</v>
       </c>
       <c r="E10" s="29">
         <v>6</v>
@@ -1063,13 +1063,13 @@
         <v>3</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" s="35" t="s">
-        <v>56</v>
+        <v>42</v>
+      </c>
+      <c r="D11" s="31" t="s">
+        <v>55</v>
       </c>
       <c r="E11" s="29">
         <v>14</v>
@@ -1083,13 +1083,13 @@
         <v>4</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" s="35" t="s">
-        <v>56</v>
+        <v>43</v>
+      </c>
+      <c r="D12" s="31" t="s">
+        <v>55</v>
       </c>
       <c r="E12" s="29">
         <v>14</v>
@@ -1103,13 +1103,13 @@
         <v>5</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="D13" s="35" t="s">
-        <v>57</v>
+        <v>44</v>
+      </c>
+      <c r="D13" s="31" t="s">
+        <v>56</v>
       </c>
       <c r="E13" s="29">
         <v>14</v>
@@ -1126,10 +1126,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" s="35" t="s">
-        <v>56</v>
+        <v>45</v>
+      </c>
+      <c r="D14" s="31" t="s">
+        <v>55</v>
       </c>
       <c r="E14" s="29">
         <v>14</v>
@@ -1143,13 +1143,13 @@
         <v>7</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>47</v>
-      </c>
-      <c r="D15" s="35" t="s">
-        <v>55</v>
+        <v>46</v>
+      </c>
+      <c r="D15" s="31" t="s">
+        <v>54</v>
       </c>
       <c r="E15" s="29">
         <v>10</v>
@@ -1161,20 +1161,20 @@
         <v>8</v>
       </c>
       <c r="B16" s="28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C16" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="D16" s="35" t="s">
-        <v>58</v>
+        <v>47</v>
+      </c>
+      <c r="D16" s="31" t="s">
+        <v>57</v>
       </c>
       <c r="E16" s="29">
         <v>7</v>
       </c>
       <c r="F16" s="29"/>
       <c r="G16" s="30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1182,13 +1182,13 @@
         <v>9</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C17" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="D17" s="35" t="s">
-        <v>59</v>
+        <v>48</v>
+      </c>
+      <c r="D17" s="31" t="s">
+        <v>58</v>
       </c>
       <c r="E17" s="29">
         <v>8</v>
@@ -1200,13 +1200,13 @@
         <v>10</v>
       </c>
       <c r="B18" s="28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C18" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="D18" s="35" t="s">
-        <v>60</v>
+        <v>49</v>
+      </c>
+      <c r="D18" s="31" t="s">
+        <v>59</v>
       </c>
       <c r="E18" s="29">
         <v>8</v>
@@ -1218,12 +1218,12 @@
         <v>11</v>
       </c>
       <c r="B19" s="28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C19" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="D19" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="31" t="s">
         <v>19</v>
       </c>
       <c r="E19" s="29">
@@ -1236,13 +1236,13 @@
         <v>12</v>
       </c>
       <c r="B20" s="28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C20" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="D20" s="35" t="s">
-        <v>61</v>
+        <v>51</v>
+      </c>
+      <c r="D20" s="31" t="s">
+        <v>60</v>
       </c>
       <c r="E20" s="29">
         <v>8</v>
@@ -1254,13 +1254,13 @@
         <v>13</v>
       </c>
       <c r="B21" s="28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C21" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="D21" s="35" t="s">
-        <v>55</v>
+        <v>52</v>
+      </c>
+      <c r="D21" s="31" t="s">
+        <v>54</v>
       </c>
       <c r="E21" s="29">
         <v>6</v>
@@ -1346,24 +1346,24 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="C2" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:3">
